--- a/Robbie_Robot_Shop_Scrum1.xlsx
+++ b/Robbie_Robot_Shop_Scrum1.xlsx
@@ -15,14 +15,15 @@
     <sheet name="Product_Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint_4_Backlog" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint_5_Backlog" sheetId="3" r:id="rId3"/>
-    <sheet name="Sprint_NN_Backlog" sheetId="4" r:id="rId4"/>
+    <sheet name="Sprint_6_Backlog" sheetId="5" r:id="rId4"/>
+    <sheet name="Sprint_NN_Backlog" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="181">
   <si>
     <t>Product Name:</t>
   </si>
@@ -531,6 +532,42 @@
   </si>
   <si>
     <t>*** Example Only – Set up a tab for EACH SPRINT ***</t>
+  </si>
+  <si>
+    <t>FID13</t>
+  </si>
+  <si>
+    <t>FID14</t>
+  </si>
+  <si>
+    <t>FID15</t>
+  </si>
+  <si>
+    <t>FID16</t>
+  </si>
+  <si>
+    <t>TID6</t>
+  </si>
+  <si>
+    <t>TID10</t>
+  </si>
+  <si>
+    <t>TID11</t>
+  </si>
+  <si>
+    <t>TID12</t>
+  </si>
+  <si>
+    <t>TID13</t>
+  </si>
+  <si>
+    <t>TID14</t>
+  </si>
+  <si>
+    <t>TID15</t>
+  </si>
+  <si>
+    <t>TID16</t>
   </si>
 </sst>
 </file>
@@ -542,7 +579,7 @@
     <numFmt numFmtId="165" formatCode="mmm&quot; &quot;dd"/>
     <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00;[Red]&quot;-&quot;[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -601,6 +638,17 @@
       <color rgb="FFFF0000"/>
       <name val="Liberation Sans"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -645,7 +693,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -725,6 +773,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -830,28 +883,28 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -867,11 +920,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="225018248"/>
-        <c:axId val="225017864"/>
+        <c:axId val="141698944"/>
+        <c:axId val="141699336"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="225017864"/>
+        <c:axId val="141699336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -973,12 +1026,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225018248"/>
+        <c:crossAx val="141698944"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="225018248"/>
+        <c:axId val="141698944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1068,7 +1121,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225017864"/>
+        <c:crossAx val="141699336"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1174,6 +1227,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1247,11 +1301,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="224329144"/>
-        <c:axId val="224328760"/>
+        <c:axId val="229226584"/>
+        <c:axId val="229226192"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="224328760"/>
+        <c:axId val="229226192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1305,6 +1359,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1352,12 +1407,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224329144"/>
+        <c:crossAx val="229226584"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="224329144"/>
+        <c:axId val="229226584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1400,6 +1455,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1446,7 +1502,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224328760"/>
+        <c:crossAx val="229226192"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1552,6 +1608,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1625,11 +1682,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="224584504"/>
-        <c:axId val="224584120"/>
+        <c:axId val="229227760"/>
+        <c:axId val="229227368"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="224584120"/>
+        <c:axId val="229227368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1683,6 +1740,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1730,12 +1788,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224584504"/>
+        <c:crossAx val="229227760"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="224584504"/>
+        <c:axId val="229227760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1778,6 +1836,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1824,7 +1883,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224584120"/>
+        <c:crossAx val="229227368"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1887,6 +1946,394 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:tabLst/>
+              <a:defRPr lang="en-US" sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Sprint Burn Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28803" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sprint_6_Backlog!$B$6:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="414080424"/>
+        <c:axId val="414080032"/>
+      </c:lineChart>
+      <c:valAx>
+        <c:axId val="414080032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6345" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="B3B3B3"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:tabLst/>
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFillTx/>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6345" cap="flat">
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:tabLst/>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="414080424"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="414080424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:tabLst/>
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFillTx/>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6345" cap="flat">
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:tabLst/>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="414080032"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="9528">
+          <a:solidFill>
+            <a:srgbClr val="B3B3B3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+        <a:lnSpc>
+          <a:spcPct val="100000"/>
+        </a:lnSpc>
+        <a:spcBef>
+          <a:spcPts val="0"/>
+        </a:spcBef>
+        <a:spcAft>
+          <a:spcPts val="0"/>
+        </a:spcAft>
+        <a:tabLst/>
+        <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Calibri"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2003,11 +2450,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="225214304"/>
-        <c:axId val="225213912"/>
+        <c:axId val="229228936"/>
+        <c:axId val="229228544"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="225213912"/>
+        <c:axId val="229228544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2108,12 +2555,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225214304"/>
+        <c:crossAx val="229228936"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="225214304"/>
+        <c:axId val="229228936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2202,7 +2649,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225213912"/>
+        <c:crossAx val="229228544"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2340,6 +2787,33 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="4086362" y="229697"/>
+    <xdr:ext cx="3751234" cy="1855043"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="4086362" y="229697"/>
@@ -2629,9 +3103,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="13.296875" customWidth="1"/>
     <col min="2" max="2" width="11.8984375" customWidth="1"/>
@@ -2646,7 +3122,7 @@
     <col min="1025" max="1025" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="13.8">
+    <row r="1" spans="1:8" s="3" customFormat="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2658,7 +3134,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="13.8">
+    <row r="2" spans="1:8" s="3" customFormat="1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2670,7 +3146,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" ht="13.8">
+    <row r="3" spans="1:8" s="3" customFormat="1">
       <c r="A3"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2680,7 +3156,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" ht="13.8">
+    <row r="4" spans="1:8" s="3" customFormat="1">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2694,7 +3170,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" ht="13.8">
+    <row r="5" spans="1:8" s="3" customFormat="1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2708,7 +3184,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" ht="13.8">
+    <row r="6" spans="1:8" s="3" customFormat="1">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2722,7 +3198,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" ht="13.8">
+    <row r="7" spans="1:8" s="3" customFormat="1">
       <c r="A7"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2732,7 +3208,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" ht="13.8">
+    <row r="8" spans="1:8" s="3" customFormat="1">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2744,7 +3220,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" ht="13.8">
+    <row r="9" spans="1:8" s="3" customFormat="1">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2756,7 +3232,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" ht="13.8">
+    <row r="10" spans="1:8" s="3" customFormat="1">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2768,7 +3244,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" ht="13.8">
+    <row r="11" spans="1:8" s="3" customFormat="1">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2780,7 +3256,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" ht="13.8">
+    <row r="12" spans="1:8" s="3" customFormat="1">
       <c r="A12"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2790,7 +3266,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" ht="13.8">
+    <row r="13" spans="1:8" s="3" customFormat="1">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2802,7 +3278,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" ht="13.8">
+    <row r="14" spans="1:8" s="3" customFormat="1">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2814,7 +3290,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" ht="13.8">
+    <row r="15" spans="1:8" s="3" customFormat="1">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -2826,7 +3302,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" ht="13.8">
+    <row r="16" spans="1:8" s="3" customFormat="1">
       <c r="A16"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2836,7 +3312,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" ht="13.8">
+    <row r="17" spans="1:8" s="3" customFormat="1">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2848,7 +3324,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" ht="13.8">
+    <row r="18" spans="1:8" s="3" customFormat="1">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2860,7 +3336,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" ht="13.8">
+    <row r="19" spans="1:8" s="3" customFormat="1">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -2872,7 +3348,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" ht="13.8">
+    <row r="20" spans="1:8" s="3" customFormat="1">
       <c r="A20"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2882,7 +3358,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" ht="13.8">
+    <row r="21" spans="1:8" s="3" customFormat="1">
       <c r="A21" s="5" t="s">
         <v>8</v>
       </c>
@@ -2901,13 +3377,12 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" s="3" customFormat="1" ht="13.8">
+    <row r="22" spans="1:8" s="3" customFormat="1">
       <c r="A22" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" ref="B22:B29" si="0">B21</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>12</v>
@@ -2920,19 +3395,18 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" s="3" customFormat="1" ht="13.8">
+    <row r="23" spans="1:8" s="3" customFormat="1">
       <c r="A23" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="8">
-        <f t="shared" ref="D23:D28" si="1">D22+7</f>
+        <f t="shared" ref="D23:D28" si="0">D22+7</f>
         <v>42656</v>
       </c>
       <c r="E23" s="2"/>
@@ -2940,19 +3414,18 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" ht="13.8">
+    <row r="24" spans="1:8" s="3" customFormat="1">
       <c r="A24" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42663</v>
       </c>
       <c r="E24" s="2"/>
@@ -2960,19 +3433,18 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" s="3" customFormat="1" ht="13.8">
+    <row r="25" spans="1:8" s="3" customFormat="1">
       <c r="A25" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42670</v>
       </c>
       <c r="E25" s="2"/>
@@ -2980,19 +3452,18 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" s="3" customFormat="1" ht="13.8">
+    <row r="26" spans="1:8" s="3" customFormat="1">
       <c r="A26" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42677</v>
       </c>
       <c r="E26" s="2"/>
@@ -3000,19 +3471,18 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" ht="13.8">
+    <row r="27" spans="1:8" s="3" customFormat="1">
       <c r="A27" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="1">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42684</v>
       </c>
       <c r="E27" s="2"/>
@@ -3020,19 +3490,19 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" s="3" customFormat="1" ht="13.8">
+    <row r="28" spans="1:8" s="3" customFormat="1">
       <c r="A28" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="1">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <f t="shared" ref="B22:B29" si="1">B27</f>
+        <v>25</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42691</v>
       </c>
       <c r="E28" s="2"/>
@@ -3040,13 +3510,13 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" s="3" customFormat="1" ht="13.8">
+    <row r="29" spans="1:8" s="3" customFormat="1">
       <c r="A29" t="s">
         <v>20</v>
       </c>
       <c r="B29" s="1">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>16</v>
@@ -3059,7 +3529,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" s="3" customFormat="1" ht="13.8">
+    <row r="30" spans="1:8" s="3" customFormat="1">
       <c r="A30"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -3069,7 +3539,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" s="3" customFormat="1" ht="13.8">
+    <row r="31" spans="1:8" s="3" customFormat="1">
       <c r="A31"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -3081,7 +3551,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" s="3" customFormat="1" ht="13.8">
+    <row r="32" spans="1:8" s="3" customFormat="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3093,7 +3563,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:9" ht="13.8">
+    <row r="33" spans="1:9">
       <c r="A33" s="10" t="s">
         <v>23</v>
       </c>
@@ -3122,7 +3592,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="13.8">
+    <row r="34" spans="1:9" ht="27.6">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -3133,7 +3603,7 @@
         <v>12</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E34" s="12">
         <v>1</v>
@@ -3151,7 +3621,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="14" customFormat="1" ht="13.8">
+    <row r="35" spans="1:9" s="14" customFormat="1">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -3161,6 +3631,9 @@
       <c r="C35" s="14" t="s">
         <v>12</v>
       </c>
+      <c r="D35" s="14">
+        <v>4</v>
+      </c>
       <c r="E35" s="15">
         <v>1</v>
       </c>
@@ -3177,7 +3650,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="13.8">
+    <row r="36" spans="1:9" ht="27.6">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -3187,6 +3660,9 @@
       <c r="C36" t="s">
         <v>41</v>
       </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
       <c r="E36" s="12">
         <v>1</v>
       </c>
@@ -3203,13 +3679,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="14" customFormat="1" ht="13.8">
+    <row r="37" spans="1:9" s="14" customFormat="1" ht="27.6">
       <c r="A37" t="s">
         <v>44</v>
       </c>
       <c r="B37" s="14">
         <v>4</v>
       </c>
+      <c r="C37" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="14">
+        <v>5</v>
+      </c>
       <c r="E37" s="15">
         <v>1</v>
       </c>
@@ -3226,7 +3708,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="13.8">
+    <row r="38" spans="1:9" ht="27.6">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -3249,13 +3731,19 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="14" customFormat="1" ht="13.8">
+    <row r="39" spans="1:9" s="14" customFormat="1">
       <c r="A39" t="s">
         <v>51</v>
       </c>
       <c r="B39" s="14">
         <v>6</v>
       </c>
+      <c r="C39" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="14">
+        <v>6</v>
+      </c>
       <c r="E39" s="15">
         <v>1</v>
       </c>
@@ -3272,7 +3760,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="13.8">
+    <row r="40" spans="1:9" ht="27.6">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -3295,7 +3783,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="13.8">
+    <row r="41" spans="1:9" ht="27.6">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -3318,13 +3806,19 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="14" customFormat="1" ht="13.8">
+    <row r="42" spans="1:9" s="14" customFormat="1" ht="27.6">
       <c r="A42" t="s">
         <v>63</v>
       </c>
       <c r="B42" s="14">
         <v>9</v>
       </c>
+      <c r="C42" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="14">
+        <v>5</v>
+      </c>
       <c r="E42" s="15">
         <v>1</v>
       </c>
@@ -3341,13 +3835,19 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="13.8">
+    <row r="43" spans="1:9" ht="27.6">
       <c r="A43" t="s">
         <v>68</v>
       </c>
       <c r="B43">
         <v>10</v>
       </c>
+      <c r="C43" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
       <c r="E43" s="12">
         <v>1</v>
       </c>
@@ -3364,13 +3864,19 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="13.8">
+    <row r="44" spans="1:9" ht="27.6">
       <c r="A44" t="s">
         <v>73</v>
       </c>
       <c r="B44">
         <v>11</v>
       </c>
+      <c r="C44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44">
+        <v>6</v>
+      </c>
       <c r="E44" s="12">
         <v>1</v>
       </c>
@@ -3387,13 +3893,19 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="13.8">
+    <row r="45" spans="1:9" ht="27.6">
       <c r="A45" t="s">
         <v>77</v>
       </c>
       <c r="B45">
         <v>12</v>
       </c>
+      <c r="C45" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
       <c r="E45" s="12">
         <v>1</v>
       </c>
@@ -3408,10 +3920,19 @@
       </c>
       <c r="I45" s="13"/>
     </row>
-    <row r="46" spans="1:9" s="17" customFormat="1" ht="13.8">
+    <row r="46" spans="1:9" s="17" customFormat="1" ht="27.6">
+      <c r="A46" s="17" t="s">
+        <v>169</v>
+      </c>
       <c r="B46">
         <v>13</v>
       </c>
+      <c r="C46" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="17">
+        <v>6</v>
+      </c>
       <c r="E46" s="15">
         <v>2</v>
       </c>
@@ -3428,10 +3949,19 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="17" customFormat="1" ht="13.8">
+    <row r="47" spans="1:9" s="17" customFormat="1" ht="27.6">
+      <c r="A47" s="17" t="s">
+        <v>170</v>
+      </c>
       <c r="B47">
         <v>14</v>
       </c>
+      <c r="C47" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="17">
+        <v>6</v>
+      </c>
       <c r="E47" s="18">
         <v>2</v>
       </c>
@@ -3448,10 +3978,19 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="17" customFormat="1" ht="13.8">
+    <row r="48" spans="1:9" s="17" customFormat="1" ht="27.6">
+      <c r="A48" s="17" t="s">
+        <v>171</v>
+      </c>
       <c r="B48">
         <v>15</v>
       </c>
+      <c r="C48" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="17">
+        <v>6</v>
+      </c>
       <c r="E48" s="18">
         <v>2</v>
       </c>
@@ -3468,10 +4007,19 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="2:9" s="17" customFormat="1" ht="13.8">
+    <row r="49" spans="1:9" s="17" customFormat="1" ht="27.6">
+      <c r="A49" s="17" t="s">
+        <v>172</v>
+      </c>
       <c r="B49">
         <v>16</v>
       </c>
+      <c r="C49" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="17">
+        <v>6</v>
+      </c>
       <c r="E49" s="18">
         <v>2</v>
       </c>
@@ -3488,7 +4036,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="2:9" s="20" customFormat="1" ht="13.8">
+    <row r="50" spans="1:9" s="20" customFormat="1" ht="41.4">
       <c r="B50" s="17">
         <v>23</v>
       </c>
@@ -3508,7 +4056,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="2:9" s="20" customFormat="1" ht="13.8">
+    <row r="51" spans="1:9" s="20" customFormat="1" ht="41.4">
       <c r="B51" s="17">
         <v>24</v>
       </c>
@@ -3528,7 +4076,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="2:9" s="26" customFormat="1" ht="13.8">
+    <row r="52" spans="1:9" s="26" customFormat="1" ht="41.4">
       <c r="B52" s="26">
         <v>17</v>
       </c>
@@ -3548,7 +4096,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="2:9" s="26" customFormat="1" ht="13.8">
+    <row r="53" spans="1:9" s="26" customFormat="1" ht="27.6">
       <c r="B53" s="26">
         <v>18</v>
       </c>
@@ -3568,13 +4116,13 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="13.8">
+    <row r="54" spans="1:9">
       <c r="E54"/>
     </row>
-    <row r="55" spans="2:9" ht="13.8">
+    <row r="55" spans="1:9">
       <c r="E55"/>
     </row>
-    <row r="56" spans="2:9" s="26" customFormat="1" ht="13.8">
+    <row r="56" spans="1:9" s="26" customFormat="1">
       <c r="B56">
         <v>21</v>
       </c>
@@ -3594,7 +4142,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="2:9" s="26" customFormat="1" ht="13.8">
+    <row r="57" spans="1:9" s="26" customFormat="1" ht="27.6">
       <c r="B57">
         <v>22</v>
       </c>
@@ -3614,7 +4162,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="2:9" s="26" customFormat="1" ht="13.8">
+    <row r="58" spans="1:9" s="26" customFormat="1" ht="27.6">
       <c r="B58" s="26">
         <v>25</v>
       </c>
@@ -3634,7 +4182,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="2:9" s="26" customFormat="1" ht="13.8">
+    <row r="59" spans="1:9" s="26" customFormat="1" ht="27.6">
       <c r="B59" s="26">
         <v>26</v>
       </c>
@@ -3654,7 +4202,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="2:9" s="29" customFormat="1" ht="13.8">
+    <row r="60" spans="1:9" s="29" customFormat="1" ht="27.6">
       <c r="B60" s="29">
         <v>27</v>
       </c>
@@ -3674,7 +4222,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="2:9" s="29" customFormat="1" ht="13.8">
+    <row r="61" spans="1:9" s="29" customFormat="1">
       <c r="B61" s="29">
         <v>28</v>
       </c>
@@ -3694,7 +4242,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="2:9" s="29" customFormat="1" ht="13.8">
+    <row r="62" spans="1:9" s="29" customFormat="1" ht="27.6">
       <c r="B62" s="29">
         <v>19</v>
       </c>
@@ -3714,7 +4262,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="2:9" s="29" customFormat="1" ht="13.8">
+    <row r="63" spans="1:9" s="29" customFormat="1">
       <c r="B63" s="29">
         <v>20</v>
       </c>
@@ -3734,7 +4282,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="2:9" s="29" customFormat="1" ht="13.8">
+    <row r="64" spans="1:9" s="29" customFormat="1" ht="27.6">
       <c r="B64" s="29">
         <v>29</v>
       </c>
@@ -3754,7 +4302,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="2:9" s="29" customFormat="1" ht="13.8">
+    <row r="65" spans="2:9" s="29" customFormat="1" ht="27.6">
       <c r="B65" s="29">
         <v>30</v>
       </c>
@@ -3774,7 +4322,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="13.8">
+    <row r="66" spans="2:9" ht="27.6">
       <c r="B66">
         <v>31</v>
       </c>
@@ -3794,7 +4342,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="13.8">
+    <row r="67" spans="2:9" ht="27.6">
       <c r="B67">
         <v>32</v>
       </c>
@@ -3814,7 +4362,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="13.8">
+    <row r="68" spans="2:9" ht="27.6">
       <c r="B68">
         <v>33</v>
       </c>
@@ -3834,7 +4382,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="13.8">
+    <row r="69" spans="2:9" ht="27.6">
       <c r="B69">
         <v>34</v>
       </c>
@@ -3854,7 +4402,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="13.8">
+    <row r="70" spans="2:9" ht="27.6">
       <c r="B70">
         <v>35</v>
       </c>
@@ -3874,7 +4422,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="13.8">
+    <row r="71" spans="2:9" ht="27.6">
       <c r="B71">
         <v>36</v>
       </c>
@@ -3896,11 +4444,12 @@
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370000000000005" bottom="0.39370000000000005" header="0" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4499,6 +5048,410 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="13.296875" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="9.09765625" customWidth="1"/>
+    <col min="6" max="6" width="38.3984375" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" customWidth="1"/>
+    <col min="8" max="8" width="51" customWidth="1"/>
+    <col min="9" max="1024" width="8.5" customWidth="1"/>
+    <col min="1025" max="1025" width="8.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="3" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="32">
+        <v>42677</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1">
+      <c r="A3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="32">
+        <v>42684</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1">
+      <c r="A4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" s="3" customFormat="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1">
+      <c r="A6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1">
+      <c r="A7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" s="3" customFormat="1">
+      <c r="A8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1">
+      <c r="A9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" s="3" customFormat="1">
+      <c r="A10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" s="3" customFormat="1">
+      <c r="A11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" s="3" customFormat="1">
+      <c r="A12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" s="3" customFormat="1">
+      <c r="A13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" s="3" customFormat="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="27.6">
+      <c r="A17" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="27.6">
+      <c r="A18" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="37"/>
+    </row>
+    <row r="20" spans="1:8" ht="27.6">
+      <c r="A20" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="27.6">
+      <c r="A21" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="27.6">
+      <c r="A22" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="27.6">
+      <c r="A23" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0.39370000000000005" bottom="0.39370000000000005" header="0" footer="0"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
